--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y422"/>
+  <dimension ref="A1:Y423"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25458,7 +25458,7 @@
       </c>
       <c r="R421" s="2" t="inlineStr"/>
     </row>
-    <row r="422">
+    <row r="422" ht="15" customHeight="1">
       <c r="A422" t="inlineStr">
         <is>
           <t>A 39009-2023</t>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25514,6 +25514,68 @@
         <v>0</v>
       </c>
       <c r="R422" s="2" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>A 42391-2023</t>
+        </is>
+      </c>
+      <c r="B423" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C423" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G423" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H423" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N423" t="n">
+        <v>0</v>
+      </c>
+      <c r="O423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R423" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y423"/>
+  <dimension ref="A1:Y424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -644,27 +644,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 50690-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 50690-2020.xlsx", "A 50690-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 50690-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 50690-2020.png", "A 50690-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 50690-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 50690-2020.docx", "A 50690-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 50690-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 50690-2020.docx", "A 50690-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 50690-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 50690-2020.docx", "A 50690-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 50690-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 50690-2020.docx", "A 50690-2020")</f>
         <v/>
       </c>
     </row>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,31 +746,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 24118-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 24118-2023.xlsx", "A 24118-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 24118-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 24118-2023.png", "A 24118-2023")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/knärot/A 24118-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/knärot/A 24118-2023.png", "A 24118-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 24118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 24118-2023.docx", "A 24118-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 24118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 24118-2023.docx", "A 24118-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 24118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 24118-2023.docx", "A 24118-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 24118-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 24118-2023.docx", "A 24118-2023")</f>
         <v/>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -841,27 +841,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 54028-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 54028-2020.xlsx", "A 54028-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 54028-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 54028-2020.png", "A 54028-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 54028-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 54028-2020.docx", "A 54028-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 54028-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 54028-2020.docx", "A 54028-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 54028-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 54028-2020.docx", "A 54028-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 54028-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 54028-2020.docx", "A 54028-2020")</f>
         <v/>
       </c>
     </row>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,27 +932,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 19456-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 19456-2022.xlsx", "A 19456-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 19456-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 19456-2022.png", "A 19456-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 19456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 19456-2022.docx", "A 19456-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 19456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 19456-2022.docx", "A 19456-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 19456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 19456-2022.docx", "A 19456-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 19456-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 19456-2022.docx", "A 19456-2022")</f>
         <v/>
       </c>
     </row>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1022,27 +1022,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 25094-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 25094-2020.xlsx", "A 25094-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 25094-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 25094-2020.png", "A 25094-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 25094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 25094-2020.docx", "A 25094-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 25094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 25094-2020.docx", "A 25094-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 25094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 25094-2020.docx", "A 25094-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 25094-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 25094-2020.docx", "A 25094-2020")</f>
         <v/>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,27 +1109,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 18380-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 18380-2020.xlsx", "A 18380-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 18380-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 18380-2020.png", "A 18380-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 18380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 18380-2020.docx", "A 18380-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 18380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 18380-2020.docx", "A 18380-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 18380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 18380-2020.docx", "A 18380-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 18380-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 18380-2020.docx", "A 18380-2020")</f>
         <v/>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1201,27 +1201,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 5484-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 5484-2023.xlsx", "A 5484-2023")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 5484-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 5484-2023.png", "A 5484-2023")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 5484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 5484-2023.docx", "A 5484-2023")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 5484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 5484-2023.docx", "A 5484-2023")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 5484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 5484-2023.docx", "A 5484-2023")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 5484-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 5484-2023.docx", "A 5484-2023")</f>
         <v/>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1287,27 +1287,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 33185-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 33185-2019.xlsx", "A 33185-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 33185-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 33185-2019.png", "A 33185-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 33185-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 33185-2019.docx", "A 33185-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 33185-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 33185-2019.docx", "A 33185-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 33185-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 33185-2019.docx", "A 33185-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 33185-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 33185-2019.docx", "A 33185-2019")</f>
         <v/>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1373,27 +1373,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 64812-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 64812-2019.xlsx", "A 64812-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 64812-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 64812-2019.png", "A 64812-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 64812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 64812-2019.docx", "A 64812-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 64812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 64812-2019.docx", "A 64812-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 64812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 64812-2019.docx", "A 64812-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 64812-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 64812-2019.docx", "A 64812-2019")</f>
         <v/>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1464,27 +1464,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 59626-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 59626-2020.xlsx", "A 59626-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 59626-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 59626-2020.png", "A 59626-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 59626-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 59626-2020.docx", "A 59626-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 59626-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 59626-2020.docx", "A 59626-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 59626-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 59626-2020.docx", "A 59626-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 59626-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 59626-2020.docx", "A 59626-2020")</f>
         <v/>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,27 +1550,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 62286-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 62286-2020.xlsx", "A 62286-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 62286-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 62286-2020.png", "A 62286-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 62286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 62286-2020.docx", "A 62286-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 62286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 62286-2020.docx", "A 62286-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 62286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 62286-2020.docx", "A 62286-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 62286-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 62286-2020.docx", "A 62286-2020")</f>
         <v/>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1636,27 +1636,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 26587-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 26587-2023.xlsx", "A 26587-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 26587-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 26587-2023.png", "A 26587-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 26587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 26587-2023.docx", "A 26587-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 26587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 26587-2023.docx", "A 26587-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 26587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 26587-2023.docx", "A 26587-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 26587-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 26587-2023.docx", "A 26587-2023")</f>
         <v/>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1722,27 +1722,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 30278-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 30278-2023.xlsx", "A 30278-2023")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 30278-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 30278-2023.png", "A 30278-2023")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 30278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 30278-2023.docx", "A 30278-2023")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 30278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 30278-2023.docx", "A 30278-2023")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 30278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 30278-2023.docx", "A 30278-2023")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 30278-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 30278-2023.docx", "A 30278-2023")</f>
         <v/>
       </c>
     </row>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,27 +1812,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 59527-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 59527-2018.xlsx", "A 59527-2018")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 59527-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 59527-2018.png", "A 59527-2018")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 59527-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 59527-2018.docx", "A 59527-2018")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 59527-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 59527-2018.docx", "A 59527-2018")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 59527-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 59527-2018.docx", "A 59527-2018")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 59527-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 59527-2018.docx", "A 59527-2018")</f>
         <v/>
       </c>
     </row>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,27 +1897,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 33968-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 33968-2020.xlsx", "A 33968-2020")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 33968-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 33968-2020.png", "A 33968-2020")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 33968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 33968-2020.docx", "A 33968-2020")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 33968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 33968-2020.docx", "A 33968-2020")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 33968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 33968-2020.docx", "A 33968-2020")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 33968-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 33968-2020.docx", "A 33968-2020")</f>
         <v/>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1987,27 +1987,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 30328-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 30328-2021.xlsx", "A 30328-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 30328-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 30328-2021.png", "A 30328-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 30328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 30328-2021.docx", "A 30328-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 30328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 30328-2021.docx", "A 30328-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 30328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 30328-2021.docx", "A 30328-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 30328-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 30328-2021.docx", "A 30328-2021")</f>
         <v/>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2072,27 +2072,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 23736-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 23736-2023.xlsx", "A 23736-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 23736-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 23736-2023.png", "A 23736-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 23736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 23736-2023.docx", "A 23736-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 23736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 23736-2023.docx", "A 23736-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 23736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 23736-2023.docx", "A 23736-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 23736-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 23736-2023.docx", "A 23736-2023")</f>
         <v/>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2157,27 +2157,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 30906-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 30906-2023.xlsx", "A 30906-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 30906-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 30906-2023.png", "A 30906-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 30906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 30906-2023.docx", "A 30906-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 30906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 30906-2023.docx", "A 30906-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 30906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 30906-2023.docx", "A 30906-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 30906-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 30906-2023.docx", "A 30906-2023")</f>
         <v/>
       </c>
     </row>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2242,27 +2242,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 34194-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/artfynd/A 34194-2023.xlsx", "A 34194-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 34194-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/kartor/A 34194-2023.png", "A 34194-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 34194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 34194-2023.docx", "A 34194-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 34194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 34194-2023.docx", "A 34194-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 34194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 34194-2023.docx", "A 34194-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 34194-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 34194-2023.docx", "A 34194-2023")</f>
         <v/>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23314,23 +23314,23 @@
       </c>
       <c r="R384" s="2" t="inlineStr"/>
       <c r="U384">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/knärot/A 13717-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/knärot/A 13717-2023.png", "A 13717-2023")</f>
         <v/>
       </c>
       <c r="V384">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 13717-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomål/A 13717-2023.docx", "A 13717-2023")</f>
         <v/>
       </c>
       <c r="W384">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 13717-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/klagomålsmail/A 13717-2023.docx", "A 13717-2023")</f>
         <v/>
       </c>
       <c r="X384">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 13717-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsyn/A 13717-2023.docx", "A 13717-2023")</f>
         <v/>
       </c>
       <c r="Y384">
-        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 13717-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_MORA/tillsynsmail/A 13717-2023.docx", "A 13717-2023")</f>
         <v/>
       </c>
     </row>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25515,7 +25515,7 @@
       </c>
       <c r="R422" s="2" t="inlineStr"/>
     </row>
-    <row r="423">
+    <row r="423" ht="15" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
           <t>A 42391-2023</t>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25576,6 +25576,68 @@
         <v>0</v>
       </c>
       <c r="R423" s="2" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>A 43498-2023</t>
+        </is>
+      </c>
+      <c r="B424" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="C424" s="1" t="n">
+        <v>45186</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G424" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>0</v>
+      </c>
+      <c r="O424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R424" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y424"/>
+  <dimension ref="A1:Y426"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="R423" s="2" t="inlineStr"/>
     </row>
-    <row r="424">
+    <row r="424" ht="15" customHeight="1">
       <c r="A424" t="inlineStr">
         <is>
           <t>A 43498-2023</t>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25638,6 +25638,120 @@
         <v>0</v>
       </c>
       <c r="R424" s="2" t="inlineStr"/>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>A 44201-2023</t>
+        </is>
+      </c>
+      <c r="B425" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C425" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="G425" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N425" t="n">
+        <v>0</v>
+      </c>
+      <c r="O425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R425" s="2" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>A 44205-2023</t>
+        </is>
+      </c>
+      <c r="B426" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C426" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="G426" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H426" t="n">
+        <v>0</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N426" t="n">
+        <v>0</v>
+      </c>
+      <c r="O426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R426" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y426"/>
+  <dimension ref="A1:Y427"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25642,14 +25642,14 @@
     <row r="425" ht="15" customHeight="1">
       <c r="A425" t="inlineStr">
         <is>
-          <t>A 44201-2023</t>
+          <t>A 44205-2023</t>
         </is>
       </c>
       <c r="B425" s="1" t="n">
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25662,7 +25662,7 @@
         </is>
       </c>
       <c r="G425" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H425" t="n">
         <v>0</v>
@@ -25696,17 +25696,17 @@
       </c>
       <c r="R425" s="2" t="inlineStr"/>
     </row>
-    <row r="426">
+    <row r="426" ht="15" customHeight="1">
       <c r="A426" t="inlineStr">
         <is>
-          <t>A 44205-2023</t>
+          <t>A 44201-2023</t>
         </is>
       </c>
       <c r="B426" s="1" t="n">
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25719,7 +25719,7 @@
         </is>
       </c>
       <c r="G426" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H426" t="n">
         <v>0</v>
@@ -25752,6 +25752,63 @@
         <v>0</v>
       </c>
       <c r="R426" s="2" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>A 44106-2023</t>
+        </is>
+      </c>
+      <c r="B427" s="1" t="n">
+        <v>45188</v>
+      </c>
+      <c r="C427" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="G427" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N427" t="n">
+        <v>0</v>
+      </c>
+      <c r="O427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R427" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y427"/>
+  <dimension ref="A1:Y428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25753,7 +25753,7 @@
       </c>
       <c r="R426" s="2" t="inlineStr"/>
     </row>
-    <row r="427">
+    <row r="427" ht="15" customHeight="1">
       <c r="A427" t="inlineStr">
         <is>
           <t>A 44106-2023</t>
@@ -25763,7 +25763,7 @@
         <v>45188</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25809,6 +25809,63 @@
         <v>0</v>
       </c>
       <c r="R427" s="2" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>A 44890-2023</t>
+        </is>
+      </c>
+      <c r="B428" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C428" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="G428" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H428" t="n">
+        <v>0</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N428" t="n">
+        <v>0</v>
+      </c>
+      <c r="O428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R428" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y428"/>
+  <dimension ref="A1:Y430"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45188</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25810,7 +25810,7 @@
       </c>
       <c r="R427" s="2" t="inlineStr"/>
     </row>
-    <row r="428">
+    <row r="428" ht="15" customHeight="1">
       <c r="A428" t="inlineStr">
         <is>
           <t>A 44890-2023</t>
@@ -25820,7 +25820,7 @@
         <v>45190</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25866,6 +25866,120 @@
         <v>0</v>
       </c>
       <c r="R428" s="2" t="inlineStr"/>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>A 47036-2023</t>
+        </is>
+      </c>
+      <c r="B429" s="1" t="n">
+        <v>45196</v>
+      </c>
+      <c r="C429" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="G429" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H429" t="n">
+        <v>0</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N429" t="n">
+        <v>0</v>
+      </c>
+      <c r="O429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R429" s="2" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>A 46612-2023</t>
+        </is>
+      </c>
+      <c r="B430" s="1" t="n">
+        <v>45198</v>
+      </c>
+      <c r="C430" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="G430" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N430" t="n">
+        <v>0</v>
+      </c>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R430" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y430"/>
+  <dimension ref="A1:Y431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45188</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45190</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45196</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
       </c>
       <c r="R429" s="2" t="inlineStr"/>
     </row>
-    <row r="430">
+    <row r="430" ht="15" customHeight="1">
       <c r="A430" t="inlineStr">
         <is>
           <t>A 46612-2023</t>
@@ -25934,7 +25934,7 @@
         <v>45198</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25980,6 +25980,68 @@
         <v>0</v>
       </c>
       <c r="R430" s="2" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>A 47347-2023</t>
+        </is>
+      </c>
+      <c r="B431" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C431" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>Bergvik skog öst AB</t>
+        </is>
+      </c>
+      <c r="G431" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N431" t="n">
+        <v>0</v>
+      </c>
+      <c r="O431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R431" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y431"/>
+  <dimension ref="A1:Y432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45188</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45190</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45196</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45198</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
       </c>
       <c r="R430" s="2" t="inlineStr"/>
     </row>
-    <row r="431">
+    <row r="431" ht="15" customHeight="1">
       <c r="A431" t="inlineStr">
         <is>
           <t>A 47347-2023</t>
@@ -25991,7 +25991,7 @@
         <v>45202</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26042,6 +26042,68 @@
         <v>0</v>
       </c>
       <c r="R431" s="2" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>A 47440-2023</t>
+        </is>
+      </c>
+      <c r="B432" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="C432" s="1" t="n">
+        <v>45204</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>DALARNAS LÄN</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>MORA</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G432" t="n">
+        <v>3</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N432" t="n">
+        <v>0</v>
+      </c>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R432" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45188</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45190</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45196</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45198</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45202</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45202</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>

--- a/Översikt MORA.xlsx
+++ b/Översikt MORA.xlsx
@@ -572,7 +572,7 @@
         <v>44111</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>45079</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
         <v>44125</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>44693</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>43979</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>43928</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>44957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1235,7 +1235,7 @@
         <v>43649</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1321,7 +1321,7 @@
         <v>43801</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
         <v>44150</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,7 +1498,7 @@
         <v>44160</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1584,7 +1584,7 @@
         <v>45092</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1756,7 +1756,7 @@
         <v>43371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>44028</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         <v>44364</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45077</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2191,7 +2191,7 @@
         <v>45138</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>43339</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
         <v>43346</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2390,7 +2390,7 @@
         <v>43346</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
         <v>43346</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2504,7 +2504,7 @@
         <v>43346</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>43346</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2618,7 +2618,7 @@
         <v>43354</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2675,7 +2675,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2732,7 +2732,7 @@
         <v>43368</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2789,7 +2789,7 @@
         <v>43371</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2851,7 +2851,7 @@
         <v>43371</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2913,7 +2913,7 @@
         <v>43374</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2970,7 +2970,7 @@
         <v>43374</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
         <v>43377</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>43388</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>43391</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>43396</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>43397</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3312,7 +3312,7 @@
         <v>43402</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43418</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3483,7 +3483,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3540,7 +3540,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         <v>43430</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         <v>43434</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         <v>43437</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>43437</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>43437</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>43440</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>43447</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>43455</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>43455</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>43455</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>43455</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>43462</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>43467</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>43467</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>43469</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>43472</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>43474</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>43474</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>43476</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>43481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4913,7 +4913,7 @@
         <v>43482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4970,7 +4970,7 @@
         <v>43482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
         <v>43483</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>43483</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5151,7 +5151,7 @@
         <v>43483</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         <v>43483</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5275,7 +5275,7 @@
         <v>43483</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>43483</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5399,7 +5399,7 @@
         <v>43483</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5461,7 +5461,7 @@
         <v>43493</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5518,7 +5518,7 @@
         <v>43493</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
         <v>43495</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5632,7 +5632,7 @@
         <v>43495</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5689,7 +5689,7 @@
         <v>43530</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5746,7 +5746,7 @@
         <v>43545</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5803,7 +5803,7 @@
         <v>43546</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5860,7 +5860,7 @@
         <v>43570</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
         <v>43572</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5974,7 +5974,7 @@
         <v>43591</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6031,7 +6031,7 @@
         <v>43594</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         <v>43594</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6145,7 +6145,7 @@
         <v>43601</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6202,7 +6202,7 @@
         <v>43601</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6259,7 +6259,7 @@
         <v>43602</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         <v>43612</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>43612</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6430,7 +6430,7 @@
         <v>43623</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
         <v>43629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6544,7 +6544,7 @@
         <v>43629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6601,7 +6601,7 @@
         <v>43629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6658,7 +6658,7 @@
         <v>43635</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6715,7 +6715,7 @@
         <v>43635</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6772,7 +6772,7 @@
         <v>43635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6829,7 +6829,7 @@
         <v>43636</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6891,7 +6891,7 @@
         <v>43640</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6948,7 +6948,7 @@
         <v>43642</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7010,7 +7010,7 @@
         <v>43643</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7067,7 +7067,7 @@
         <v>43649</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>43649</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7181,7 +7181,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7238,7 +7238,7 @@
         <v>43649</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7295,7 +7295,7 @@
         <v>43650</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>43651</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7409,7 +7409,7 @@
         <v>43656</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7466,7 +7466,7 @@
         <v>43661</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7523,7 +7523,7 @@
         <v>43664</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7580,7 +7580,7 @@
         <v>43675</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7642,7 +7642,7 @@
         <v>43675</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7704,7 +7704,7 @@
         <v>43676</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7761,7 +7761,7 @@
         <v>43682</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>43685</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7885,7 +7885,7 @@
         <v>43692</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43693</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43698</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43707</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>43707</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8299,7 +8299,7 @@
         <v>43718</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>43718</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>43718</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>43724</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>43724</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>43727</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>43733</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8760,7 +8760,7 @@
         <v>43748</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8817,7 +8817,7 @@
         <v>43754</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8879,7 +8879,7 @@
         <v>43761</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         <v>43767</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8993,7 +8993,7 @@
         <v>43768</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9050,7 +9050,7 @@
         <v>43769</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9107,7 +9107,7 @@
         <v>43769</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9164,7 +9164,7 @@
         <v>43782</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>43783</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9288,7 +9288,7 @@
         <v>43784</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9345,7 +9345,7 @@
         <v>43787</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9402,7 +9402,7 @@
         <v>43791</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9459,7 +9459,7 @@
         <v>43791</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9516,7 +9516,7 @@
         <v>43795</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9578,7 +9578,7 @@
         <v>43802</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9635,7 +9635,7 @@
         <v>43803</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9692,7 +9692,7 @@
         <v>43808</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9749,7 +9749,7 @@
         <v>43810</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43810</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9868,7 +9868,7 @@
         <v>43811</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9925,7 +9925,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9982,7 +9982,7 @@
         <v>43817</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>43817</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>43826</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>43844</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>43845</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>43857</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>43859</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>43865</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>43868</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>43871</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10562,7 +10562,7 @@
         <v>43888</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10619,7 +10619,7 @@
         <v>43896</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
         <v>43910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10733,7 +10733,7 @@
         <v>43917</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10795,7 +10795,7 @@
         <v>43917</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10857,7 +10857,7 @@
         <v>43928</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10914,7 +10914,7 @@
         <v>43935</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10976,7 +10976,7 @@
         <v>43935</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11038,7 +11038,7 @@
         <v>43938</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>43951</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>43958</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11214,7 +11214,7 @@
         <v>43978</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>43984</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>43987</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>43987</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44005</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11514,7 +11514,7 @@
         <v>44006</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11571,7 +11571,7 @@
         <v>44022</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11628,7 +11628,7 @@
         <v>44032</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
         <v>44032</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11742,7 +11742,7 @@
         <v>44032</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11799,7 +11799,7 @@
         <v>44047</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11856,7 +11856,7 @@
         <v>44055</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11913,7 +11913,7 @@
         <v>44057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11970,7 +11970,7 @@
         <v>44062</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12027,7 +12027,7 @@
         <v>44067</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12084,7 +12084,7 @@
         <v>44074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12141,7 +12141,7 @@
         <v>44074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12198,7 +12198,7 @@
         <v>44076</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12260,7 +12260,7 @@
         <v>44081</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12317,7 +12317,7 @@
         <v>44100</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>44109</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>44109</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44118</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12545,7 +12545,7 @@
         <v>44130</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12602,7 +12602,7 @@
         <v>44133</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12659,7 +12659,7 @@
         <v>44138</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>44139</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12778,7 +12778,7 @@
         <v>44141</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44141</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44152</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12964,7 +12964,7 @@
         <v>44155</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13026,7 +13026,7 @@
         <v>44160</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44160</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>44169</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44180</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44180</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44186</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>44187</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>44194</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>44194</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44203</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>44203</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>44203</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>44203</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44203</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44203</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44203</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44203</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44204</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>44210</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>44244</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>44244</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>44266</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>44295</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>44301</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>44301</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>44309</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>44326</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>44337</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>44343</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>44347</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>44363</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>44365</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44368</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44368</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44382</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44383</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44389</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>44410</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44413</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44413</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15373,7 +15373,7 @@
         <v>44421</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15430,7 +15430,7 @@
         <v>44421</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15487,7 +15487,7 @@
         <v>44421</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>44427</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15601,7 +15601,7 @@
         <v>44427</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15658,7 +15658,7 @@
         <v>44432</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15715,7 +15715,7 @@
         <v>44435</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15772,7 +15772,7 @@
         <v>44435</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15829,7 +15829,7 @@
         <v>44438</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15886,7 +15886,7 @@
         <v>44438</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15943,7 +15943,7 @@
         <v>44438</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16000,7 +16000,7 @@
         <v>44440</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16057,7 +16057,7 @@
         <v>44441</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16114,7 +16114,7 @@
         <v>44441</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16171,7 +16171,7 @@
         <v>44447</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16228,7 +16228,7 @@
         <v>44449</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16285,7 +16285,7 @@
         <v>44455</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16342,7 +16342,7 @@
         <v>44455</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16399,7 +16399,7 @@
         <v>44455</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44466</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16513,7 +16513,7 @@
         <v>44473</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16570,7 +16570,7 @@
         <v>44482</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16627,7 +16627,7 @@
         <v>44482</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16684,7 +16684,7 @@
         <v>44482</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16741,7 +16741,7 @@
         <v>44484</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16798,7 +16798,7 @@
         <v>44487</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16855,7 +16855,7 @@
         <v>44488</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16917,7 +16917,7 @@
         <v>44488</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16974,7 +16974,7 @@
         <v>44489</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17036,7 +17036,7 @@
         <v>44497</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17093,7 +17093,7 @@
         <v>44505</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17155,7 +17155,7 @@
         <v>44508</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>44508</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>44515</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17336,7 +17336,7 @@
         <v>44515</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17393,7 +17393,7 @@
         <v>44515</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17450,7 +17450,7 @@
         <v>44522</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17507,7 +17507,7 @@
         <v>44525</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17564,7 +17564,7 @@
         <v>44529</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>44530</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>44531</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>44533</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>44533</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17854,7 +17854,7 @@
         <v>44543</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17911,7 +17911,7 @@
         <v>44545</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17973,7 +17973,7 @@
         <v>44553</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18030,7 +18030,7 @@
         <v>44564</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18087,7 +18087,7 @@
         <v>44581</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18144,7 +18144,7 @@
         <v>44581</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18201,7 +18201,7 @@
         <v>44589</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18258,7 +18258,7 @@
         <v>44600</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18315,7 +18315,7 @@
         <v>44601</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18372,7 +18372,7 @@
         <v>44601</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18429,7 +18429,7 @@
         <v>44608</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18486,7 +18486,7 @@
         <v>44613</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         <v>44630</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18600,7 +18600,7 @@
         <v>44658</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18657,7 +18657,7 @@
         <v>44658</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18714,7 +18714,7 @@
         <v>44673</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18771,7 +18771,7 @@
         <v>44678</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18828,7 +18828,7 @@
         <v>44699</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18885,7 +18885,7 @@
         <v>44705</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18942,7 +18942,7 @@
         <v>44720</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>44722</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19056,7 +19056,7 @@
         <v>44722</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>44725</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>44726</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>44742</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>44747</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>44768</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19403,7 +19403,7 @@
         <v>44775</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19460,7 +19460,7 @@
         <v>44782</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44789</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44796</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19641,7 +19641,7 @@
         <v>44796</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19703,7 +19703,7 @@
         <v>44796</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19760,7 +19760,7 @@
         <v>44811</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19822,7 +19822,7 @@
         <v>44812</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19879,7 +19879,7 @@
         <v>44813</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19936,7 +19936,7 @@
         <v>44819</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19993,7 +19993,7 @@
         <v>44830</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44832</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44837</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44838</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>44838</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>44845</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>44848</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>44851</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>44852</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>44853</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>44859</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>44865</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>44867</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>44874</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20806,7 +20806,7 @@
         <v>44883</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20863,7 +20863,7 @@
         <v>44886</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20920,7 +20920,7 @@
         <v>44886</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20977,7 +20977,7 @@
         <v>44886</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21034,7 +21034,7 @@
         <v>44888</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21091,7 +21091,7 @@
         <v>44889</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21148,7 +21148,7 @@
         <v>44893</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21205,7 +21205,7 @@
         <v>44893</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21262,7 +21262,7 @@
         <v>44896</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21319,7 +21319,7 @@
         <v>44897</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21376,7 +21376,7 @@
         <v>44897</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21433,7 +21433,7 @@
         <v>44898</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21490,7 +21490,7 @@
         <v>44902</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21547,7 +21547,7 @@
         <v>44907</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21604,7 +21604,7 @@
         <v>44907</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21661,7 +21661,7 @@
         <v>44911</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21718,7 +21718,7 @@
         <v>44917</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>44922</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21832,7 +21832,7 @@
         <v>44937</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21889,7 +21889,7 @@
         <v>44937</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21946,7 +21946,7 @@
         <v>44937</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22003,7 +22003,7 @@
         <v>44937</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22060,7 +22060,7 @@
         <v>44942</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22117,7 +22117,7 @@
         <v>44953</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22174,7 +22174,7 @@
         <v>44953</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22231,7 +22231,7 @@
         <v>44953</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22288,7 +22288,7 @@
         <v>44953</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
         <v>44956</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22402,7 +22402,7 @@
         <v>44956</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22459,7 +22459,7 @@
         <v>44957</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22516,7 +22516,7 @@
         <v>44957</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22573,7 +22573,7 @@
         <v>44957</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>44958</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22692,7 +22692,7 @@
         <v>44958</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22749,7 +22749,7 @@
         <v>44964</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22806,7 +22806,7 @@
         <v>44967</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22863,7 +22863,7 @@
         <v>44971</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22920,7 +22920,7 @@
         <v>44978</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22977,7 +22977,7 @@
         <v>44979</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23034,7 +23034,7 @@
         <v>44984</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23091,7 +23091,7 @@
         <v>44995</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23148,7 +23148,7 @@
         <v>45001</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23205,7 +23205,7 @@
         <v>45001</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45007</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23344,7 +23344,7 @@
         <v>45013</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23401,7 +23401,7 @@
         <v>45015</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23458,7 +23458,7 @@
         <v>45033</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23515,7 +23515,7 @@
         <v>45043</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23572,7 +23572,7 @@
         <v>45044</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23629,7 +23629,7 @@
         <v>45044</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23686,7 +23686,7 @@
         <v>45049</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23743,7 +23743,7 @@
         <v>45056</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23800,7 +23800,7 @@
         <v>45056</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23857,7 +23857,7 @@
         <v>45057</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23919,7 +23919,7 @@
         <v>45061</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23981,7 +23981,7 @@
         <v>45063</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24038,7 +24038,7 @@
         <v>45068</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24095,7 +24095,7 @@
         <v>45068</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24152,7 +24152,7 @@
         <v>45068</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24209,7 +24209,7 @@
         <v>45070</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24271,7 +24271,7 @@
         <v>45072</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24328,7 +24328,7 @@
         <v>45072</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24385,7 +24385,7 @@
         <v>45075</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24442,7 +24442,7 @@
         <v>45077</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24499,7 +24499,7 @@
         <v>45077</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24556,7 +24556,7 @@
         <v>45079</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24613,7 +24613,7 @@
         <v>45084</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24670,7 +24670,7 @@
         <v>45086</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         <v>45090</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24784,7 +24784,7 @@
         <v>45093</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         <v>45096</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45098</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>45104</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>45104</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>45105</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25126,7 +25126,7 @@
         <v>45105</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25183,7 +25183,7 @@
         <v>45114</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25240,7 +25240,7 @@
         <v>45145</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25297,7 +25297,7 @@
         <v>45148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25354,7 +25354,7 @@
         <v>45153</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45160</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25468,7 +25468,7 @@
         <v>45162</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25525,7 +25525,7 @@
         <v>45180</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45184</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25649,7 +25649,7 @@
         <v>45188</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25706,7 +25706,7 @@
         <v>45188</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25763,7 +25763,7 @@
         <v>45188</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25820,7 +25820,7 @@
         <v>45190</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25877,7 +25877,7 @@
         <v>45196</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45198</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45202</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26053,7 +26053,7 @@
         <v>45202</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
